--- a/data/matu_scale.xlsx
+++ b/data/matu_scale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="FR" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="175">
   <si>
     <t>Phase</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>Anglefish</t>
+  </si>
+  <si>
+    <t>Argyrosomus regius</t>
+  </si>
+  <si>
+    <t>54 - 71 cm</t>
+  </si>
+  <si>
+    <t>41 - 54 cm</t>
+  </si>
+  <si>
+    <t>Meagre</t>
   </si>
 </sst>
 </file>
@@ -782,8 +794,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E316" totalsRowShown="0">
-  <autoFilter ref="A1:E316"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E336" totalsRowShown="0">
+  <autoFilter ref="A1:E336"/>
   <sortState ref="A2:E316">
     <sortCondition ref="A1:A316"/>
   </sortState>
@@ -799,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E311" totalsRowShown="0">
-  <autoFilter ref="A1:E311"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E332" totalsRowShown="0">
+  <autoFilter ref="A1:E332"/>
   <sortState ref="A2:E311">
     <sortCondition ref="E1:E311"/>
   </sortState>
@@ -1078,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:A169"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="E317" sqref="E317:E336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6465,6 +6477,346 @@
         <v>71</v>
       </c>
     </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>174</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>174</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E318" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>174</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E319" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>174</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E320" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>174</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E321" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>174</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E322" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>174</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C323" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E323" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>174</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E324" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>174</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C325" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E325" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>174</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E326" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>174</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C327" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E327" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>174</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E328" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>174</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>174</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E330" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>174</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>174</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>174</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E333" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>174</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>174</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E335" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>174</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E336" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6476,10 +6828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:A144"/>
+    <sheetView topLeftCell="A298" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E312" sqref="E312:E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11778,6 +12130,363 @@
         <v>71</v>
       </c>
     </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>174</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E312" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>174</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E313" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>174</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E314" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>174</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>174</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C316" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E316" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>174</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E317" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>174</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E318" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>174</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E319" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>174</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E320" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>174</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E321" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>174</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E322" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>174</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C323" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E323" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>174</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E324" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>174</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C325" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E325" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>174</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E326" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>174</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C327" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E327" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>174</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E328" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>174</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E329" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>174</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E330" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>174</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E331" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>174</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E332" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11789,9 +12498,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11833,7 +12544,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="8" t="str">
-        <f t="shared" ref="B3:B31" si="0">A3</f>
+        <f t="shared" ref="B3:B33" si="0">A3</f>
         <v>Chelidonichthys cuculus</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -11905,67 +12616,71 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Engraulis encrasicolus</v>
+        <v>Argyrosomus regius</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Engraulis encrasicolus</v>
+        <v>Argyrosomus regius</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Flat fish sp.</v>
+        <v>Engraulis encrasicolus</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Flat fish sp.</v>
+        <v>Engraulis encrasicolus</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>63</v>
+      <c r="A12" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Gadidae sp.</v>
+        <v>Flat fish sp.</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1</v>
@@ -11973,49 +12688,47 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>63</v>
+      <c r="A13" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>Flat fish sp.</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Gadidae sp.</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>61</v>
+      <c r="A15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Gadidae sp.</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>61</v>
@@ -12024,12 +12737,12 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>61</v>
@@ -12038,250 +12751,250 @@
         <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Merluccius merluccius</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Merluccius merluccius</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Mullus surmuletus</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Mullus surmuletus</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Pagellus bogaraveo</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Pagellus bogaraveo</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Scomber scombrus</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Scomber scombrus</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Solea solea</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="8" t="str">
+      <c r="B29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Solea solea</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="8" t="str">
+      <c r="B30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Sprattus sprattus</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="8" t="str">
+      <c r="B31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Sprattus sprattus</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Sardina pilchardus</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Sardina pilchardus</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>63</v>
@@ -12290,12 +13003,12 @@
         <v>1</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>63</v>
@@ -12304,12 +13017,12 @@
         <v>11</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>63</v>
@@ -12318,12 +13031,12 @@
         <v>1</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>63</v>
@@ -12332,40 +13045,40 @@
         <v>11</v>
       </c>
       <c r="D37" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>69</v>
@@ -12373,13 +13086,13 @@
       <c r="C40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>112</v>
+      <c r="D40" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>69</v>
@@ -12388,12 +13101,12 @@
         <v>11</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>69</v>
@@ -12402,12 +13115,12 @@
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>69</v>
@@ -12416,40 +13129,40 @@
         <v>11</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>124</v>
@@ -12458,12 +13171,12 @@
         <v>1</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>124</v>
@@ -12472,6 +13185,34 @@
         <v>11</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>129</v>
       </c>
     </row>

--- a/data/matu_scale.xlsx
+++ b/data/matu_scale.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7375" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7375" uniqueCount="235">
   <si>
     <t>Phase</t>
   </si>
@@ -727,9 +727,6 @@
     <t>UNDETERMINABLE WITH THE NAKED EYE</t>
   </si>
   <si>
-    <t>Dicentrarchus labrax &amp; Argyrosomus regius</t>
-  </si>
-  <si>
     <t>ATTENTION : période de ponte étalée et par à-coup</t>
   </si>
   <si>
@@ -1284,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E700"/>
   <sheetViews>
-    <sheetView topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="D320" sqref="D320:D321"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254:E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5612,7 +5609,7 @@
         <v>163</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5629,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -5646,7 +5643,7 @@
         <v>157</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -5663,7 +5660,7 @@
         <v>53</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5680,7 +5677,7 @@
         <v>148</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5697,7 +5694,7 @@
         <v>16</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -5714,7 +5711,7 @@
         <v>150</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -5731,7 +5728,7 @@
         <v>55</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5748,7 +5745,7 @@
         <v>164</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -5765,7 +5762,7 @@
         <v>152</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -5782,7 +5779,7 @@
         <v>163</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -5799,7 +5796,7 @@
         <v>52</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -5816,7 +5813,7 @@
         <v>159</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -5833,7 +5830,7 @@
         <v>12</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -5850,7 +5847,7 @@
         <v>13</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -5867,7 +5864,7 @@
         <v>166</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -5884,7 +5881,7 @@
         <v>14</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -5901,7 +5898,7 @@
         <v>153</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -5918,7 +5915,7 @@
         <v>15</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -5935,7 +5932,7 @@
         <v>164</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -5952,7 +5949,7 @@
         <v>152</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6731,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E320" s="14"/>
     </row>
@@ -6746,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E321" s="14"/>
     </row>
@@ -13206,8 +13203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D357" sqref="D357:D358"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19282,7 +19279,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E357" s="28"/>
     </row>
@@ -19297,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E358" s="28"/>
     </row>

--- a/data/matu_scale.xlsx
+++ b/data/matu_scale.xlsx
@@ -1061,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E841"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A831" workbookViewId="0">
       <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
@@ -15384,7 +15384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E835"/>
   <sheetViews>
-    <sheetView topLeftCell="A801" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A807" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D476" sqref="D476"/>
     </sheetView>
   </sheetViews>

--- a/data/matu_scale.xlsx
+++ b/data/matu_scale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FR" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8380" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8580" uniqueCount="182">
   <si>
     <t>Phase</t>
   </si>
@@ -566,6 +566,12 @@
   <si>
     <t>Mullus sp.</t>
   </si>
+  <si>
+    <t>European smelt</t>
+  </si>
+  <si>
+    <t>Osmerus eperlanus</t>
+  </si>
 </sst>
 </file>
 
@@ -763,8 +769,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E841" totalsRowShown="0">
-  <autoFilter ref="A1:E841"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E861" totalsRowShown="0">
+  <autoFilter ref="A1:E861"/>
   <sortState ref="A2:E336">
     <sortCondition ref="A1:A336"/>
   </sortState>
@@ -780,8 +786,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E835" totalsRowShown="0">
-  <autoFilter ref="A1:E835"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E855" totalsRowShown="0">
+  <autoFilter ref="A1:E855"/>
   <sortState ref="A2:E695">
     <sortCondition ref="A1:A695"/>
   </sortState>
@@ -1059,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E841"/>
+  <dimension ref="A1:E861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A831" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="A842" sqref="A842:A861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15371,6 +15377,346 @@
         <v>174</v>
       </c>
     </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>180</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C842" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E842" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>180</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C843" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E843" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>180</v>
+      </c>
+      <c r="B844" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C844" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D844" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E844" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>180</v>
+      </c>
+      <c r="B845" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C845" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E845" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>180</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C846" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E846" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>180</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C847" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E847" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>180</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C848" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E848" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>180</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C849" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E849" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>180</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C850" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E850" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>180</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C851" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E851" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>180</v>
+      </c>
+      <c r="B852" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C852" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E852" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>180</v>
+      </c>
+      <c r="B853" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C853" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D853" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E853" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>180</v>
+      </c>
+      <c r="B854" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C854" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E854" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>180</v>
+      </c>
+      <c r="B855" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C855" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E855" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>180</v>
+      </c>
+      <c r="B856" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C856" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E856" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>180</v>
+      </c>
+      <c r="B857" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C857" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E857" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>180</v>
+      </c>
+      <c r="B858" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C858" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E858" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>180</v>
+      </c>
+      <c r="B859" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C859" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E859" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>180</v>
+      </c>
+      <c r="B860" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C860" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E860" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>180</v>
+      </c>
+      <c r="B861" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C861" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E861" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15382,10 +15728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E835"/>
+  <dimension ref="A1:E855"/>
   <sheetViews>
-    <sheetView topLeftCell="A807" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D476" sqref="D476"/>
+    <sheetView tabSelected="1" topLeftCell="A832" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D847" sqref="D847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29592,6 +29938,346 @@
         <v>178</v>
       </c>
     </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>180</v>
+      </c>
+      <c r="B836" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C836" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E836" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>180</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C837" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E837" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>180</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C838" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E838" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>180</v>
+      </c>
+      <c r="B839" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C839" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E839" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>180</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C840" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E840" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>180</v>
+      </c>
+      <c r="B841" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C841" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E841" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>180</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C842" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E842" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>180</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C843" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E843" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>180</v>
+      </c>
+      <c r="B844" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C844" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D844" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E844" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>180</v>
+      </c>
+      <c r="B845" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C845" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E845" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>180</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C846" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E846" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>180</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C847" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E847" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>180</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C848" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E848" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>180</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C849" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E849" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>180</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C850" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E850" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>180</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C851" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E851" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>180</v>
+      </c>
+      <c r="B852" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C852" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E852" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>180</v>
+      </c>
+      <c r="B853" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C853" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E853" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>180</v>
+      </c>
+      <c r="B854" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C854" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D854" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E854" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>180</v>
+      </c>
+      <c r="B855" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C855" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E855" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
